--- a/output/v2/result - GPT4omini_v2.xlsx
+++ b/output/v2/result - GPT4omini_v2.xlsx
@@ -501,19 +501,18 @@
         <is>
           <t>Here are the detailed steps from the video based on the frames provided:
 1. **Open Weather Website**: The operator opens a weather website displaying the current temperature and weather conditions.
-2. **View Temperature**: The current temperature is displayed prominently on the website.
-3. **Check Weather Details**: The operator reviews additional weather details such as forecasts and conditions.
-4. **Open Spreadsheet**: The operator switches to a spreadsheet application where they have a list of cities in column A.
-5. **Select First City**: The operator selects the first city from column A in the spreadsheet.
-6. **Search for City Temperature**: The operator enters the name of the selected city into the weather website's search bar.
-7. **View Temperature Result**: The operator waits for the website to load and displays the temperature for the searched city.
-8. **Record Temperature**: The operator notes the temperature displayed on the website.
-9. **Fill Spreadsheet**: The operator enters the recorded temperature into column B of the spreadsheet next to the corresponding city.
-10. **Repeat Process**: The operator repeats steps 5 to 9 for the next city in column A, searching for its temperature and recording it in column B.
-11. **Continue Until Complete**: The operator continues this process for all cities listed in column A until all temperatures are recorded in column B.
-12. **Final Review**: The operator reviews the spreadsheet to ensure all temperatures have been accurately recorded.
-13. **Save Spreadsheet**: The operator saves the updated spreadsheet with the recorded temperatures.
-These steps outline the process of searching for city temperatures and recording them in a spreadsheet as shown in the video frames.</t>
+2. **View Temperature**: The temperature is displayed prominently on the website, showing the current temperature for a specific city.
+3. **Spreadsheet Opened**: The operator has a spreadsheet open on the right side, with column A ready to receive city names and column B for temperatures.
+4. **Select City**: The operator selects a city from the spreadsheet (column A).
+5. **Search for Temperature**: The operator enters the city name into the weather website's search bar and initiates the search.
+6. **View Results**: The website displays the current temperature and weather conditions for the searched city.
+7. **Record Temperature**: The operator notes the temperature displayed on the website.
+8. **Fill Spreadsheet**: The operator enters the recorded temperature into the corresponding cell in column B of the spreadsheet.
+9. **Repeat Process**: The operator returns to the spreadsheet, selects the next city from column A, and repeats the search and recording process.
+10. **Continue Until Complete**: This process continues for each city listed in column A, with temperatures being recorded in column B until all cities have been processed.
+11. **Final Review**: Once all temperatures are recorded, the operator may review the spreadsheet for accuracy.
+12. **Save Spreadsheet**: The operator saves the spreadsheet with the recorded temperatures for future reference. 
+This sequence captures the main actions taken in the video.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -548,15 +547,14 @@
       <c r="F3" t="inlineStr">
         <is>
           <t>To get the weather temperature for "Yunnan" following the steps shown in the video, you can follow these instructions:
-1. **Open a Web Browser**: Launch your preferred web browser.
+1. **Open a Web Browser**: Start by launching your preferred web browser.
 2. **Search for Weather**: In the search bar, type "Yunnan weather" and press Enter. This should lead you to a weather website that provides current weather information.
 3. **Locate the Temperature**: Once the weather page for Yunnan loads, look for the current temperature displayed prominently on the page. It is usually shown in large numbers at the top.
-4. **Record the Temperature**: Note down the temperature displayed. If there are multiple readings (like high and low), make sure to record the current temperature.
-5. **Open Spreadsheet**: Open your spreadsheet application (like Google Sheets or Excel).
-6. **Input the Data**: Click on the cell where you want to enter the temperature. Type in the temperature you noted from the weather website.
-7. **Save Your Work**: Make sure to save your spreadsheet to keep the recorded data.
-8. **Repeat if Necessary**: If you need to check the weather for other locations, repeat the steps for each location.
-By following these steps, you can efficiently gather and record the weather temperature for Yunnan.</t>
+4. **Record the Temperature**: Note down the temperature. If there are multiple readings (like high and low), make sure to record the one you need.
+5. **Open Your Spreadsheet**: Switch to your spreadsheet application (like Google Sheets or Excel).
+6. **Input the Temperature**: Click on the cell where you want to enter the temperature and type in the value you noted from the weather website.
+7. **Repeat if Necessary**: If you need to check the weather for other locations, repeat the steps above for each location.
+By following these steps, you can efficiently gather and record the weather temperature for Yunnan or any other city.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -661,7 +659,7 @@
   ]
 }
 ```
-This JSON structure captures the sequence of clicks on cells in column A, along with their respective timestamps. Adjust the timestamps as necessary based on the actual video time.</t>
+This JSON structure captures each click on the cells in column A, along with the corresponding timestamps. Adjust the timestamps as necessary based on the actual video time.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -699,16 +697,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>I can't identify the content of the images or the video frames you've provided. However, if you need help with a specific question or topic related to the frames, feel free to ask!</t>
+          <t>I can't identify the content of the images or the video frames you've provided. However, if you need assistance with a specific question or topic related to the frames, feel free to ask!</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1. 成都市天气_百度搜索
-2.上海天气_百度搜索
-3.北京天气_百度搜索
-4.广州天气_百度搜索
-2. work.xlsx</t>
+          <t>1. 成都市天气_百度搜索&amp;#10;2.上海天气_百度搜索&amp;#10;3.北京天气_百度搜索&amp;#10;4.广州天气_百度搜索&amp;#10;2. work.xlsx</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -860,7 +854,7 @@
     }
 ]
 ```
-**Note:** The pixel positions and specific actions are placeholders. You may need to adjust the pixel positions based on the actual coordinates of the actions in the frames.</t>
+**Note:** The pixel positions and specific actions are placeholders. You would need to replace them with the actual coordinates and actions based on the specific interactions in the video frames.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -898,21 +892,20 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>It looks like you've shared a series of frames from a video showing the process of retrieving weather data for various cities and entering that information into an Excel sheet. 
-To summarize the process based on the frames:
-1. **Open Weather Website**: The user navigates to a weather website to check the temperature for a specific city.
-2. **Retrieve Temperature**: The temperature is displayed prominently on the website.
-3. **Enter Data into Excel**: The user enters the city name and corresponding temperature into an Excel sheet.
-4. **Repeat for Other Cities**: This process is repeated for multiple cities, with the user switching back and forth between the weather website and the Excel sheet.
-If you need a specific table format for the city names and temperatures, please provide the city names and their corresponding temperatures, and I can help format that into a table.</t>
+          <t>It looks like you're working with a video that demonstrates how to gather weather data for various cities and input it into an Excel sheet. Based on the frames you've provided, here's a simplified table format for the city names and their corresponding temperatures:
+| City Name | Temperature |
+|-----------|-------------|
+| City 1    | 25°C        |
+| City 2    | 35°C        |
+| City 3    | 32°C        |
+| City 4    | 35°C        |
+(Note: Replace "City 1", "City 2", etc., with the actual city names as per your data collection process.) 
+If you need further assistance or specific details, feel free to ask!</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>| City Name | Temperature |
-| 上海 | 35° |
-| 北京 | 32° |
-| 广州 | 35° |</t>
+          <t>| City Name | Temperature |&amp;#10;| 上海 | 35° |&amp;#10;| 北京 | 32° |&amp;#10;| 广州 | 35° |</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -954,9 +947,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.上海
-2.北京
-3.广州</t>
+          <t>1.上海&amp;#10;2.北京&amp;#10;3.广州</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1014,14 +1005,12 @@
 18. City 18
 19. City 19
 20. City 20
-(Note: The specific names of the cities were not visible in the frames provided.)</t>
+(Note: The specific names of the cities are not provided in the frames, so they are labeled generically as "City 1," "City 2," etc.)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.上海
-2.北京
-3.广州</t>
+          <t>1.上海&amp;#10;2.北京&amp;#10;3.广州</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1212,7 +1201,11 @@
   },
   "text box": {
     "count": 2,
-    "names": ["Find", "Clear"]
+    "names": ["ID", "Display Name"]
+  },
+  "label": {
+    "count": 5,
+    "names": ["Application Pools", "Filter", "ID", "Display Name", "Farm"]
   }
 }
 ```</t>
@@ -1288,9 +1281,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Analyze the provided video and learn only the steps and processes that are present in the video. For each step in the video, identify the step action type, action value, action description, next step, and the pixel coordinates of that step. Present the results in JSON format where each item represents a step and contains the fields: 
-"step",
-"action_type", "action_value", "action_description",  "pixel_coordinates" and "next_step". Note that the resolution of the video when I recorded it is 2560*1379.</t>
+          <t>Analyze the provided video and learn only the steps and processes that are present in the video. For each step in the video, identify the step action type, action value, action description, next step, and the pixel coordinates of that step. Present the results in JSON format where each item represents a step and contains the fields: &amp;#10;"step",&amp;#10;"action_type", "action_value", "action_description",  "pixel_coordinates" and "next_step". Note that the resolution of the video when I recorded it is 2560*1379.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1377,10 +1368,34 @@
         "action_description": "Clicked to search for another location.",
         "pixel_coordinates": [550, 200],
         "next_step": 11
+    },
+    {
+        "step": 11,
+        "action_type": "input",
+        "action_value": "new location",
+        "action_description": "Entered a new location in the search bar.",
+        "pixel_coordinates": [600, 200],
+        "next_step": 12
+    },
+    {
+        "step": 12,
+        "action_type": "submit",
+        "action_value": "search",
+        "action_description": "Submitted the search for the new location.",
+        "pixel_coordinates": [650, 200],
+        "next_step": 13
+    },
+    {
+        "step": 13,
+        "action_type": "view",
+        "action_value": "new weather data",
+        "action_description": "Viewed the weather data for the new location.",
+        "pixel_coordinates": [700, 200],
+        "next_step": 14
     }
 ]
 ```
-This JSON structure outlines the steps taken in the video, including the action type, value, description, pixel coordinates, and the next step in the process. Adjust the pixel coordinates based on the actual positions in your frames.</t>
+This JSON structure outlines the steps taken in the video, including the action type, value, description, pixel coordinates, and the next step in the process. Adjust the pixel coordinates as necessary based on the actual positions in your frames.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -1480,19 +1495,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>```json
-{
-    "A1": "too",
-    "B1": "t00",
-    "C1": "ll",
-    "D1": "iill",
-    "E1": "LL11ll",
-    "A3": "top",
-    "B3": "100",
-    "C3": "lily",
-    "E4": "Lee"
-}
-```</t>
+          <t>```json&amp;#10;{&amp;#10;    "A1": "too",&amp;#10;    "B1": "t00",&amp;#10;    "C1": "ll",&amp;#10;    "D1": "iill",&amp;#10;    "E1": "LL11ll",&amp;#10;    "A3": "top",&amp;#10;    "B3": "100",&amp;#10;    "C3": "lily",&amp;#10;    "E4": "Lee"&amp;#10;}&amp;#10;```</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1536,17 +1539,17 @@
     "attributes": ["User Id", "Home Branch", "Current Branch"],
     "values": [
       ["FCU50100", "001", "000"],
-      ["ARUN101", "001", "000"],
-      ["NFRA32", "001", "001"],
-      ["ASN12", "001", "001"]
+      ["ARUNR01", "001", "000"],
+      ["INFRA32", "001", "001"],
+      ["ASIN12", "001", "002"]
     ]
   },
   "UserAlerts": {
     "attributes": ["User ID", "Sequence Number", "Alert Type"],
     "values": [
-      ["31681401", "31581401", "A"],
-      ["31681401", "31581401", "D"],
-      ["31681401", "31581401", "A"]
+      ["31618401", "31618401", "A"],
+      ["31618401", "31618402", "D"],
+      ["31618401", "31618403", "A"]
     ]
   },
   "UserRoleAccountClass": {
@@ -1560,18 +1563,17 @@
     "values": [
       ["FUNDS TRANSFER TxD", "D", "D"],
       ["FUNDS TRANSFER TxD", "D", "D"],
-      ["FUNDS TRANSFER TxD", "D", "D"],
       ["Foreign Exchange Main D", "D", "D"]
     ]
   },
   "ModuleDashboardSummary": {
-    "attributes": ["Module Description"],
+    "attributes": ["Module Id", "Module Description"],
     "values": [
-      ["AC"],
-      ["Auto of Day"],
-      ["Asset Management"],
-      ["Bills and Collections"],
-      ["Corporate Finance"]
+      ["AC", "Accounting"],
+      ["AD", "Auto of Day"],
+      ["AM", "Asset Management"],
+      ["BC", "Bills and Collections"],
+      ["CM", "Card Maintenance"]
     ]
   }
 }
@@ -1618,17 +1620,17 @@
 1. **Select the Cells to Merge**:
    - Click and drag to select the cells in the first row that you want to merge. For example, if you want to merge cells A1, B1, and C1, click on cell A1 and drag to cell C1.
 2. **Open the Merge Options**:
-   - After selecting the cells, look for the "Merge &amp; Center" button in the toolbar. This is usually found in the "Home" tab of the ribbon at the top of the Excel window.
-3. **Choose the Merge Option**:
-   - Click on the "Merge &amp; Center" button. If you want to see more options, click the small arrow next to it. You will see options like:
+   - After selecting the cells, look for the "Merge &amp; Center" option in the toolbar. This is usually found in the "Home" tab of the ribbon at the top of the Excel window.
+3. **Choose the Merge Type**:
+   - Click on the "Merge &amp; Center" dropdown arrow to see the merge options. You can choose:
      - **Merge &amp; Center**: Merges the selected cells and centers the content.
-     - **Merge Across**: Merges cells in each row individually.
+     - **Merge Across**: Merges cells in each row individually (not applicable if you are merging a single row).
      - **Merge Cells**: Merges the selected cells without centering the content.
-     - **Unmerge Cells**: If you want to unmerge any previously merged cells.
+     - **Unmerge Cells**: If you need to unmerge previously merged cells.
 4. **Confirm the Merge**:
-   - After selecting your desired merge option, the cells will merge, and the content from the top-left cell (A1) will remain, while the content from the other cells will be removed.
+   - Click on your desired merge option (e.g., "Merge &amp; Center"). The selected cells will now be merged into one cell.
 5. **Adjust Formatting (if needed)**:
-   - You may want to adjust the font size, style, or alignment of the merged cell to fit your needs.
+   - After merging, you may want to adjust the font size, style, or alignment of the text in the merged cell to ensure it looks the way you want.
 By following these steps, you will successfully merge the first row in your Excel spreadsheet.</t>
         </is>
       </c>
@@ -1661,7 +1663,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>input/image/2.mp4</t>
+          <t>input/video/2.mp4</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1671,7 +1673,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Running Error</t>
+          <t>It looks like you've shared a series of frames from a video, possibly showing an Excel spreadsheet. If you need help with something specific regarding these frames, such as analyzing data or extracting information, please let me know!</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1701,7 +1703,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>input/image/3.mp4</t>
+          <t>input/video/3.mp4</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1711,7 +1713,8 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Running Error</t>
+          <t>To determine the number of click events based on the visible water ripples in the frames you provided, I would need to analyze each frame for the presence of these ripples. 
+Please count the number of frames that show water ripples, as each ripple typically indicates a click event. If you can provide that count, I can help you summarize the findings or assist with any further analysis.</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1741,7 +1744,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>input/image/3.mp4</t>
+          <t>input/video/3.mp4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1751,7 +1754,9 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Running Error</t>
+          <t>To determine the number of click events based on the visible selection frames in the provided images, we can analyze each frame for the presence of a selection frame around a cell.
+From the frames you provided, it appears that there are **12 visible selection frames**. Each frame indicates a click event in Excel.
+Therefore, the total number of clicks is **12**.</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1781,7 +1786,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>input/image/4.mp4</t>
+          <t>input/video/4.mp4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1791,7 +1796,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Running Error</t>
+          <t>In the provided frames, the prompt box with a red background and white text containing the words "&lt;左键&gt;" appears **five times**. Each occurrence represents a left-click event.</t>
         </is>
       </c>
       <c r="G23" t="n">
